--- a/Python操作Excel/Ch11_凸顯符合條件的資料/data11_7.xlsx
+++ b/Python操作Excel/Ch11_凸顯符合條件的資料/data11_7.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AEADAD-0397-4752-BD14-41E3F920AB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14C90D-E8B3-4B72-A917-D02A87A80DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2290" yWindow="1410" windowWidth="14080" windowHeight="6630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支票日期" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -396,15 +394,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,67 +415,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>44742</v>
+        <v>44925</v>
       </c>
       <c r="C2">
         <v>78000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>44747</v>
+        <v>44931</v>
       </c>
       <c r="C3">
         <v>112200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>44752</v>
+        <v>44936</v>
       </c>
       <c r="C4">
         <v>320000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>44772</v>
+        <v>44956</v>
       </c>
       <c r="C5">
         <v>68000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>44773</v>
+        <v>44957</v>
       </c>
       <c r="C6">
         <v>93000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>44778</v>
+        <v>44962</v>
       </c>
       <c r="C7">
         <v>73200</v>
